--- a/Databases/Templates GoalgetterWin.xlsx
+++ b/Databases/Templates GoalgetterWin.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10412"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Documents\Syncmap\Promotie\PASS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lorenzo/Projects/PASS/Databases/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15B3708-72F9-6C40-99BB-06F92775DE57}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="11340" windowHeight="5010"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23000" windowHeight="14080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -818,9 +819,6 @@
     <t>Alleen &lt;yellow card player&gt; van &lt;yellow team&gt; kreeg geel.</t>
   </si>
   <si>
-    <t>Scheidsrechter Ed Janssen was genoodzaakt één gele kaart te geven, aan &lt;yellow card player&gt;.</t>
-  </si>
-  <si>
     <t>Alleen &lt;yellow card player&gt; liep een gele kaart op.</t>
   </si>
   <si>
@@ -1083,12 +1081,15 @@
   </si>
   <si>
     <t>&lt;twice yellow players&gt; kregen twee keer geel van de scheidsrechter en moesten dus vroegtijdig het veld verlaten.</t>
+  </si>
+  <si>
+    <t>Scheidsrechter &lt;referee&gt; was genoodzaakt één gele kaart te geven, aan &lt;yellow card player&gt;.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1145,7 +1146,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1161,7 +1162,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1480,20 +1481,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:DB26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CX1" workbookViewId="0">
-      <selection activeCell="CY2" sqref="CY2"/>
+    <sheetView tabSelected="1" topLeftCell="CU2" workbookViewId="0">
+      <selection activeCell="CU4" sqref="CU4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="106" width="130" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,13 +1514,13 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>7</v>
@@ -1531,28 +1532,28 @@
         <v>9</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="U1" s="3" t="s">
         <v>10</v>
@@ -1582,7 +1583,7 @@
         <v>18</v>
       </c>
       <c r="AD1" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AE1" s="3" t="s">
         <v>19</v>
@@ -1597,7 +1598,7 @@
         <v>22</v>
       </c>
       <c r="AI1" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AJ1" s="3" t="s">
         <v>23</v>
@@ -1729,7 +1730,7 @@
         <v>65</v>
       </c>
       <c r="CA1" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="CB1" s="3" t="s">
         <v>66</v>
@@ -1813,7 +1814,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -1826,30 +1827,30 @@
       <c r="D2" s="4"/>
       <c r="E2" s="2"/>
       <c r="F2" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
       <c r="I2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="T2" s="2"/>
       <c r="W2" t="s">
@@ -1864,29 +1865,29 @@
       <c r="AB2" s="3"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AE2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF2" t="s">
         <v>95</v>
       </c>
       <c r="AG2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="AH2" t="s">
         <v>96</v>
       </c>
       <c r="AJ2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" t="s">
         <v>97</v>
       </c>
       <c r="AM2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="AO2" t="s">
         <v>98</v>
@@ -1913,10 +1914,10 @@
         <v>105</v>
       </c>
       <c r="AZ2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="BA2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="BB2" t="s">
         <v>106</v>
@@ -1946,10 +1947,10 @@
         <v>114</v>
       </c>
       <c r="BV2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="BW2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BX2" t="s">
         <v>115</v>
@@ -2003,7 +2004,7 @@
         <v>129</v>
       </c>
       <c r="CY2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="CZ2" t="s">
         <v>130</v>
@@ -2012,7 +2013,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -2020,7 +2021,7 @@
         <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -2028,7 +2029,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -2060,7 +2061,7 @@
         <v>137</v>
       </c>
       <c r="AG3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AH3" t="s">
         <v>138</v>
@@ -2077,19 +2078,19 @@
         <v>141</v>
       </c>
       <c r="AW3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="AX3" t="s">
         <v>142</v>
       </c>
       <c r="BB3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BC3" t="s">
         <v>143</v>
       </c>
       <c r="BG3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="BH3" t="s">
         <v>144</v>
@@ -2129,7 +2130,7 @@
         <v>155</v>
       </c>
       <c r="CU3" t="s">
-        <v>265</v>
+        <v>353</v>
       </c>
       <c r="CV3" t="s">
         <v>262</v>
@@ -2141,15 +2142,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2184,7 +2185,7 @@
         <v>161</v>
       </c>
       <c r="AF4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
@@ -2198,13 +2199,13 @@
         <v>163</v>
       </c>
       <c r="BB4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="BC4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="BG4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="BH4" t="s">
         <v>164</v>
@@ -2226,7 +2227,7 @@
         <v>169</v>
       </c>
       <c r="CU4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="CV4" t="s">
         <v>263</v>
@@ -2238,15 +2239,15 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2285,13 +2286,13 @@
       </c>
       <c r="AK5" s="3"/>
       <c r="AT5" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BB5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="BC5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="BH5" t="s">
         <v>176</v>
@@ -2318,15 +2319,15 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B6" t="s">
+        <v>292</v>
+      </c>
+      <c r="C6" t="s">
         <v>293</v>
-      </c>
-      <c r="C6" t="s">
-        <v>294</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2365,7 +2366,7 @@
       </c>
       <c r="AK6" s="3"/>
       <c r="AT6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="BH6" t="s">
         <v>188</v>
@@ -2386,15 +2387,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2433,7 +2434,7 @@
       </c>
       <c r="AK7" s="3"/>
       <c r="AT7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BH7" t="s">
         <v>198</v>
@@ -2454,12 +2455,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="8" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2498,13 +2499,13 @@
       </c>
       <c r="AK8" s="3"/>
       <c r="AT8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="BH8" t="s">
         <v>208</v>
       </c>
       <c r="BP8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BZ8" t="s">
         <v>209</v>
@@ -2519,9 +2520,9 @@
         <v>212</v>
       </c>
     </row>
-    <row r="9" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2560,7 +2561,7 @@
       </c>
       <c r="AK9" s="3"/>
       <c r="AT9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="BZ9" t="s">
         <v>216</v>
@@ -2572,9 +2573,9 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -2613,7 +2614,7 @@
       </c>
       <c r="AK10" s="3"/>
       <c r="AT10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="BZ10" t="s">
         <v>223</v>
@@ -2625,9 +2626,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -2647,7 +2648,7 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="W11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -2663,7 +2664,7 @@
       </c>
       <c r="AK11" s="3"/>
       <c r="AT11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="BZ11" t="s">
         <v>228</v>
@@ -2672,9 +2673,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:106" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2694,7 +2695,7 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="W12" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="X12" s="3"/>
       <c r="Y12" s="3"/>
@@ -2710,7 +2711,7 @@
       </c>
       <c r="AK12" s="3"/>
       <c r="AT12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BZ12" t="s">
         <v>232</v>
@@ -2719,7 +2720,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="13" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:106" x14ac:dyDescent="0.2">
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -2738,7 +2739,7 @@
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="W13" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="X13" s="3"/>
       <c r="Y13" s="3"/>
@@ -2757,10 +2758,10 @@
         <v>236</v>
       </c>
       <c r="CZ13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
-    <row r="14" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:106" x14ac:dyDescent="0.2">
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -2779,7 +2780,7 @@
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="W14" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="X14" s="3"/>
       <c r="Y14" s="3"/>
@@ -2801,7 +2802,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:106" x14ac:dyDescent="0.2">
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2820,7 +2821,7 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="W15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="X15" s="3"/>
       <c r="Y15" s="3"/>
@@ -2839,7 +2840,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="16" spans="1:106" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:106" x14ac:dyDescent="0.2">
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -2858,7 +2859,7 @@
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="W16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
@@ -2877,7 +2878,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="17" spans="4:104" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:104" x14ac:dyDescent="0.2">
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -2896,7 +2897,7 @@
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="W17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="X17" s="3"/>
       <c r="Y17" s="3"/>
@@ -2915,7 +2916,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="18" spans="4:104" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:104" x14ac:dyDescent="0.2">
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -2934,7 +2935,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="W18" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="X18" s="3"/>
       <c r="Y18" s="3"/>
@@ -2950,7 +2951,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="19" spans="4:104" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:104" x14ac:dyDescent="0.2">
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2969,12 +2970,12 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="W19" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
@@ -2985,7 +2986,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="4:104" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:104" x14ac:dyDescent="0.2">
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3004,12 +3005,12 @@
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="W20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="X20" s="3"/>
       <c r="Y20" s="3"/>
       <c r="Z20" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AA20" s="3"/>
       <c r="AB20" s="3"/>
@@ -3020,7 +3021,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="21" spans="4:104" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:104" x14ac:dyDescent="0.2">
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -3039,12 +3040,12 @@
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="W21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="X21" s="3"/>
       <c r="Y21" s="3"/>
       <c r="Z21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AA21" s="3"/>
       <c r="AB21" s="3"/>
@@ -3055,7 +3056,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="4:104" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:104" x14ac:dyDescent="0.2">
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -3076,7 +3077,7 @@
       <c r="X22" s="3"/>
       <c r="Y22" s="3"/>
       <c r="Z22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
@@ -3087,7 +3088,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="4:104" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:104" x14ac:dyDescent="0.2">
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -3108,7 +3109,7 @@
       <c r="X23" s="3"/>
       <c r="Y23" s="3"/>
       <c r="Z23" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AA23" s="3"/>
       <c r="AB23" s="3"/>
@@ -3119,19 +3120,19 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="4:104" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:104" x14ac:dyDescent="0.2">
       <c r="Z24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
-    <row r="25" spans="4:104" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:104" x14ac:dyDescent="0.2">
       <c r="Z25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="4:104" x14ac:dyDescent="0.2">
+      <c r="Z26" t="s">
         <v>314</v>
-      </c>
-    </row>
-    <row r="26" spans="4:104" x14ac:dyDescent="0.25">
-      <c r="Z26" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3141,15 +3142,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
@@ -3159,15 +3160,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
   </sheetData>
